--- a/playstation/output/finances_sum_totals.xlsx
+++ b/playstation/output/finances_sum_totals.xlsx
@@ -335,16 +335,16 @@
     </row>
     <row r="2">
       <c r="A2" s="3">
-        <v>943.0</v>
+        <v>1035.0</v>
       </c>
       <c r="B2" s="3">
-        <v>22819.62</v>
+        <v>24791.65</v>
       </c>
       <c r="C2" s="3">
-        <v>10205.15</v>
+        <v>10602.07</v>
       </c>
       <c r="D2" s="3">
-        <v>12614.47</v>
+        <v>14189.58</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
